--- a/src/main/java/pageObjectModel/automation/data/Login.xlsx
+++ b/src/main/java/pageObjectModel/automation/data/Login.xlsx
@@ -1,67 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/PageObjectModelWithExtentReport/src/main/java/pageObjectModel/automation/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Registor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
-  <si>
-    <t>Test case Name</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Passoword</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passowrd</t>
+  </si>
+  <si>
+    <t>selectDay</t>
+  </si>
+  <si>
+    <t>selectMonth</t>
+  </si>
+  <si>
+    <t>selectYear</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>automationTest</t>
+  </si>
+  <si>
+    <t>oassword</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>automationTest1</t>
+  </si>
+  <si>
+    <t>automationTest2</t>
+  </si>
+  <si>
+    <t>automationTest3</t>
+  </si>
+  <si>
+    <t>verificationMessage</t>
+  </si>
+  <si>
+    <t>Welcome123 to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>lastName1</t>
+  </si>
+  <si>
+    <t>lastName2</t>
+  </si>
+  <si>
+    <t>lastName3</t>
+  </si>
+  <si>
+    <t>firstName1</t>
+  </si>
+  <si>
+    <t>customerfirstName</t>
+  </si>
+  <si>
+    <t>customerLastName</t>
+  </si>
+  <si>
+    <t>customerLastName1</t>
+  </si>
+  <si>
+    <t>customerLastName2</t>
+  </si>
+  <si>
+    <t>customerLastName3</t>
+  </si>
+  <si>
+    <t>customerL</t>
+  </si>
+  <si>
+    <t>customerL1</t>
+  </si>
+  <si>
+    <t>customer2</t>
+  </si>
+  <si>
+    <t>customer3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +146,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,12 +241,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -184,12 +276,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -393,128 +485,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="11" max="11" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2017</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/pageObjectModel/automation/data/Login.xlsx
+++ b/src/main/java/pageObjectModel/automation/data/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Registor" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>passowrd</t>
   </si>
   <si>
@@ -59,30 +56,15 @@
     <t>runMode</t>
   </si>
   <si>
-    <t>automationTest</t>
-  </si>
-  <si>
     <t>oassword</t>
   </si>
   <si>
     <t>January</t>
   </si>
   <si>
-    <t>address1</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
-    <t>automationTest1</t>
-  </si>
-  <si>
-    <t>automationTest2</t>
-  </si>
-  <si>
-    <t>automationTest3</t>
-  </si>
-  <si>
     <t>verificationMessage</t>
   </si>
   <si>
@@ -95,43 +77,58 @@
     <t>N</t>
   </si>
   <si>
-    <t>lastName1</t>
-  </si>
-  <si>
-    <t>lastName2</t>
-  </si>
-  <si>
-    <t>lastName3</t>
-  </si>
-  <si>
-    <t>firstName1</t>
-  </si>
-  <si>
     <t>customerfirstName</t>
   </si>
   <si>
     <t>customerLastName</t>
   </si>
   <si>
-    <t>customerLastName1</t>
-  </si>
-  <si>
-    <t>customerLastName2</t>
-  </si>
-  <si>
-    <t>customerLastName3</t>
-  </si>
-  <si>
     <t>customerL</t>
   </si>
   <si>
-    <t>customerL1</t>
-  </si>
-  <si>
-    <t>customer2</t>
-  </si>
-  <si>
-    <t>customer3</t>
+    <t>customerLastNa</t>
+  </si>
+  <si>
+    <t>customerLastNam</t>
+  </si>
+  <si>
+    <t>firstNamee</t>
+  </si>
+  <si>
+    <t>firstNameee</t>
+  </si>
+  <si>
+    <t>firstNameui</t>
+  </si>
+  <si>
+    <t>customerLe</t>
+  </si>
+  <si>
+    <t>customeruu</t>
+  </si>
+  <si>
+    <t>customerff</t>
+  </si>
+  <si>
+    <t>lastNameoo</t>
+  </si>
+  <si>
+    <t>lastNamell</t>
+  </si>
+  <si>
+    <t>lastNameil</t>
+  </si>
+  <si>
+    <t>addresss</t>
+  </si>
+  <si>
+    <t>addresser</t>
+  </si>
+  <si>
+    <t>addressssss</t>
+  </si>
+  <si>
+    <t>addresslll</t>
   </si>
 </sst>
 </file>
@@ -485,23 +482,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="11" max="11" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="10" max="10" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -530,165 +526,150 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>2017</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>2019</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>2017</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/pageObjectModel/automation/data/Login.xlsx
+++ b/src/main/java/pageObjectModel/automation/data/Login.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Y</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>verificationMessage</t>
-  </si>
-  <si>
-    <t>Welcome123 to your account. Here you can manage all of your personal information and orders.</t>
   </si>
   <si>
     <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
@@ -151,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,10 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +489,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -542,14 +546,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2017</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -558,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -577,23 +581,23 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
+      <c r="D3" s="2">
+        <v>2016</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -612,26 +616,26 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>2016</v>
+      <c r="D4" s="2">
+        <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
@@ -647,29 +651,29 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>2020</v>
+      <c r="D5" s="2">
+        <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/pageObjectModel/automation/data/Login.xlsx
+++ b/src/main/java/pageObjectModel/automation/data/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Registor" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>customerfirstName</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>addresslll</t>
+  </si>
+  <si>
+    <t>Welcome123 to your account. Here you can manage all of your personal information and orders.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -550,10 +550,10 @@
         <v>2017</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -585,19 +585,19 @@
         <v>2016</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -620,19 +620,19 @@
         <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -655,25 +655,25 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/pageObjectModel/automation/data/Login.xlsx
+++ b/src/main/java/pageObjectModel/automation/data/Login.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Welcome123 to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -638,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
